--- a/Relatorio_anuncios_patrocinados_15d_total_SP.xlsx
+++ b/Relatorio_anuncios_patrocinados_15d_total_SP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08efa3ad722ed28c/Aplicativos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmdel\OneDrive\Aplicativos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2773B8E4-6F52-41F1-A2A7-B9E46CC51D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7344E2A4-3870-4A50-8AD6-C99324E55B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="111">
   <si>
     <t>Desde</t>
   </si>
@@ -244,7 +244,7 @@
   </si>
   <si>
     <r>
-      <t>Relatório de publicidade por anúncios patrocinados gerados em 28-jul-2025</t>
+      <t>Relatório de publicidade por anúncios patrocinados gerados em 02-ago-2025</t>
     </r>
     <r>
       <rPr>
@@ -271,10 +271,10 @@
     </r>
   </si>
   <si>
-    <t>13-jul-2025</t>
-  </si>
-  <si>
-    <t>27-jul-2025</t>
+    <t>18-jul-2025</t>
+  </si>
+  <si>
+    <t>01-ago-2025</t>
   </si>
   <si>
     <t>Ads 1kg nosso mel</t>
@@ -542,8 +542,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$R$]#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -682,7 +683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -714,13 +715,18 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -942,8 +948,8 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.109375" defaultRowHeight="15" customHeight="1"/>
@@ -966,30 +972,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="54" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
       <c r="G1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
     </row>
     <row r="2" spans="1:20" ht="54" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -1054,10 +1060,10 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -1073,53 +1079,53 @@
         <v>27</v>
       </c>
       <c r="G3" s="9">
-        <v>185538</v>
+        <v>194045</v>
       </c>
       <c r="H3" s="9">
-        <v>929</v>
+        <v>981</v>
       </c>
       <c r="I3" s="9">
         <v>0.96</v>
       </c>
       <c r="J3" s="9">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="K3" s="9">
-        <v>16.68</v>
+        <v>18.25</v>
       </c>
       <c r="L3" s="9">
-        <v>6706.400390625</v>
+        <v>7756.88037109375</v>
       </c>
       <c r="M3" s="9">
-        <v>894.14</v>
+        <v>937.08</v>
       </c>
       <c r="N3" s="9">
-        <v>13.33</v>
+        <v>12.08</v>
       </c>
       <c r="O3" s="9">
-        <v>750.04</v>
+        <v>827.77</v>
       </c>
       <c r="P3" s="9">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="Q3" s="9">
         <v>3</v>
       </c>
       <c r="R3" s="9">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="S3" s="9">
-        <v>6653.0400390625</v>
+        <v>7703.52001953125</v>
       </c>
       <c r="T3" s="9">
         <v>53.360000610351563</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -1135,16 +1141,16 @@
         <v>27</v>
       </c>
       <c r="G4" s="9">
-        <v>535</v>
+        <v>813</v>
       </c>
       <c r="H4" s="9">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0.12</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>31</v>
@@ -1153,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="9">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="N4" s="9" t="s">
         <v>31</v>
@@ -1178,10 +1184,10 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -1197,10 +1203,10 @@
         <v>27</v>
       </c>
       <c r="G5" s="9">
-        <v>104298</v>
+        <v>88231</v>
       </c>
       <c r="H5" s="9">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="I5" s="9">
         <v>0.26</v>
@@ -1209,41 +1215,41 @@
         <v>0.13</v>
       </c>
       <c r="K5" s="9">
-        <v>1.52</v>
+        <v>2.65</v>
       </c>
       <c r="L5" s="9">
-        <v>68.879997253417969</v>
+        <v>103.31999206542969</v>
       </c>
       <c r="M5" s="9">
-        <v>34.93</v>
+        <v>29.33</v>
       </c>
       <c r="N5" s="9">
-        <v>50.71</v>
+        <v>28.39</v>
       </c>
       <c r="O5" s="9">
-        <v>197.19</v>
+        <v>352.27</v>
       </c>
       <c r="P5" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q5" s="9">
         <v>0</v>
       </c>
       <c r="R5" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S5" s="9">
-        <v>68.879997253417969</v>
+        <v>103.31999206542969</v>
       </c>
       <c r="T5" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -1259,53 +1265,53 @@
         <v>27</v>
       </c>
       <c r="G6" s="9">
-        <v>66782</v>
+        <v>52794</v>
       </c>
       <c r="H6" s="9">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="I6" s="9">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="J6" s="9">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="K6" s="9">
-        <v>12.58</v>
+        <v>7.34</v>
       </c>
       <c r="L6" s="9">
-        <v>402.41995239257813</v>
+        <v>159.46000671386719</v>
       </c>
       <c r="M6" s="9">
-        <v>97.62</v>
+        <v>48.9</v>
       </c>
       <c r="N6" s="9">
-        <v>24.26</v>
+        <v>30.67</v>
       </c>
       <c r="O6" s="9">
-        <v>412.23</v>
+        <v>326.08999999999997</v>
       </c>
       <c r="P6" s="9">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="Q6" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R6" s="9">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="S6" s="9">
-        <v>364.3199462890625</v>
+        <v>141.67999267578125</v>
       </c>
       <c r="T6" s="9">
-        <v>38.099998474121094</v>
+        <v>17.780000686645508</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -1364,10 +1370,10 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -1426,10 +1432,10 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -1445,53 +1451,53 @@
         <v>27</v>
       </c>
       <c r="G9" s="9">
-        <v>37352</v>
+        <v>65748</v>
       </c>
       <c r="H9" s="9">
-        <v>90</v>
+        <v>139</v>
       </c>
       <c r="I9" s="9">
-        <v>1.1599999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="J9" s="9">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="K9" s="9">
-        <v>8.89</v>
+        <v>6.47</v>
       </c>
       <c r="L9" s="9">
-        <v>459.66000366210938</v>
+        <v>515.28997802734375</v>
       </c>
       <c r="M9" s="9">
-        <v>103.97</v>
+        <v>132.44999999999999</v>
       </c>
       <c r="N9" s="9">
-        <v>22.62</v>
+        <v>25.7</v>
       </c>
       <c r="O9" s="9">
-        <v>442.11</v>
+        <v>389.04</v>
       </c>
       <c r="P9" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q9" s="9">
         <v>1</v>
       </c>
       <c r="R9" s="9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S9" s="9">
-        <v>392.43002319335938</v>
+        <v>448.06002807617188</v>
       </c>
       <c r="T9" s="9">
         <v>67.230003356933594</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -1507,7 +1513,7 @@
         <v>27</v>
       </c>
       <c r="G10" s="9">
-        <v>316</v>
+        <v>586</v>
       </c>
       <c r="H10" s="9">
         <v>3</v>
@@ -1516,7 +1522,7 @@
         <v>1.51</v>
       </c>
       <c r="J10" s="9">
-        <v>0.95</v>
+        <v>0.51</v>
       </c>
       <c r="K10" s="9">
         <v>66.67</v>
@@ -1550,10 +1556,10 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -1569,16 +1575,16 @@
         <v>27</v>
       </c>
       <c r="G11" s="9">
-        <v>115</v>
+        <v>590</v>
       </c>
       <c r="H11" s="9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I11" s="9">
-        <v>1.7</v>
+        <v>0.81</v>
       </c>
       <c r="J11" s="9">
-        <v>0.87</v>
+        <v>1.69</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>31</v>
@@ -1587,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="9">
-        <v>1.7</v>
+        <v>8.15</v>
       </c>
       <c r="N11" s="9" t="s">
         <v>31</v>
@@ -1612,10 +1618,10 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -1674,10 +1680,10 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -1693,53 +1699,53 @@
         <v>27</v>
       </c>
       <c r="G13" s="9">
-        <v>86227</v>
+        <v>72996</v>
       </c>
       <c r="H13" s="9">
-        <v>220</v>
+        <v>164</v>
       </c>
       <c r="I13" s="9">
-        <v>0.59</v>
+        <v>0.42</v>
       </c>
       <c r="J13" s="9">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="K13" s="9">
-        <v>16.36</v>
+        <v>13.41</v>
       </c>
       <c r="L13" s="9">
-        <v>944.20001220703125</v>
+        <v>671.81005859375</v>
       </c>
       <c r="M13" s="9">
-        <v>130.08000000000001</v>
+        <v>69.03</v>
       </c>
       <c r="N13" s="9">
-        <v>13.78</v>
+        <v>10.27</v>
       </c>
       <c r="O13" s="9">
-        <v>725.86</v>
+        <v>973.21</v>
       </c>
       <c r="P13" s="9">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="Q13" s="9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="R13" s="9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="S13" s="9">
-        <v>664.20001220703125</v>
+        <v>492.00006103515625</v>
       </c>
       <c r="T13" s="9">
-        <v>280</v>
+        <v>179.80999755859375</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -1755,53 +1761,53 @@
         <v>27</v>
       </c>
       <c r="G14" s="9">
-        <v>127879</v>
+        <v>131355</v>
       </c>
       <c r="H14" s="9">
-        <v>478</v>
+        <v>506</v>
       </c>
       <c r="I14" s="9">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="J14" s="9">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="K14" s="9">
-        <v>12.97</v>
+        <v>10.87</v>
       </c>
       <c r="L14" s="9">
-        <v>5411.2001953125</v>
+        <v>4852.16064453125</v>
       </c>
       <c r="M14" s="9">
-        <v>686.84</v>
+        <v>748.96</v>
       </c>
       <c r="N14" s="9">
-        <v>12.69</v>
+        <v>15.44</v>
       </c>
       <c r="O14" s="9">
-        <v>787.84</v>
+        <v>647.85</v>
       </c>
       <c r="P14" s="9">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Q14" s="9">
         <v>1</v>
       </c>
       <c r="R14" s="9">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="S14" s="9">
-        <v>5381.4404296875</v>
+        <v>4822.400390625</v>
       </c>
       <c r="T14" s="9">
         <v>29.760000228881836</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -1860,10 +1866,10 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -1922,10 +1928,10 @@
       </c>
     </row>
     <row r="17" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -1984,10 +1990,10 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -2046,10 +2052,10 @@
       </c>
     </row>
     <row r="19" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -2108,10 +2114,10 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -2170,10 +2176,10 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -2232,10 +2238,10 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -2294,10 +2300,10 @@
       </c>
     </row>
     <row r="23" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -2356,10 +2362,10 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -2418,10 +2424,10 @@
       </c>
     </row>
     <row r="25" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -2480,10 +2486,10 @@
       </c>
     </row>
     <row r="26" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -2499,16 +2505,16 @@
         <v>27</v>
       </c>
       <c r="G26" s="9">
-        <v>1210</v>
+        <v>9940</v>
       </c>
       <c r="H26" s="9">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="I26" s="9">
-        <v>2.4300000000000002</v>
+        <v>1.51</v>
       </c>
       <c r="J26" s="9">
-        <v>0.5</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K26" s="9" t="s">
         <v>31</v>
@@ -2517,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="9">
-        <v>14.61</v>
+        <v>43.86</v>
       </c>
       <c r="N26" s="9" t="s">
         <v>31</v>
@@ -2542,10 +2548,10 @@
       </c>
     </row>
     <row r="27" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -2561,7 +2567,7 @@
         <v>27</v>
       </c>
       <c r="G27" s="9">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H27" s="9">
         <v>0</v>
@@ -2604,10 +2610,10 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -2623,16 +2629,16 @@
         <v>27</v>
       </c>
       <c r="G28" s="9">
-        <v>804</v>
+        <v>3883</v>
       </c>
       <c r="H28" s="9">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I28" s="9">
-        <v>2.5499999999999998</v>
+        <v>2.74</v>
       </c>
       <c r="J28" s="9">
-        <v>0.5</v>
+        <v>0.26</v>
       </c>
       <c r="K28" s="9" t="s">
         <v>31</v>
@@ -2641,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="9">
-        <v>10.199999999999999</v>
+        <v>27.41</v>
       </c>
       <c r="N28" s="9" t="s">
         <v>31</v>
@@ -2666,10 +2672,10 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -2685,53 +2691,53 @@
         <v>27</v>
       </c>
       <c r="G29" s="9">
-        <v>108800</v>
+        <v>101813</v>
       </c>
       <c r="H29" s="9">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="I29" s="9">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="J29" s="9">
-        <v>0.28999999999999998</v>
+        <v>0.31</v>
       </c>
       <c r="K29" s="9">
-        <v>7.03</v>
+        <v>10.66</v>
       </c>
       <c r="L29" s="9">
-        <v>3224.51025390625</v>
+        <v>4639.66015625</v>
       </c>
       <c r="M29" s="9">
-        <v>462.66</v>
+        <v>469.88</v>
       </c>
       <c r="N29" s="9">
-        <v>14.35</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="O29" s="9">
-        <v>696.95</v>
+        <v>987.41</v>
       </c>
       <c r="P29" s="9">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="Q29" s="9">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="R29" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="S29" s="9">
-        <v>2930.400146484375</v>
+        <v>3907.2001953125</v>
       </c>
       <c r="T29" s="9">
-        <v>294.1099853515625</v>
+        <v>732.46002197265625</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -2790,10 +2796,10 @@
       </c>
     </row>
     <row r="31" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -2852,10 +2858,10 @@
       </c>
     </row>
     <row r="32" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -2914,10 +2920,10 @@
       </c>
     </row>
     <row r="33" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C33" s="7" t="s">
@@ -2976,10 +2982,10 @@
       </c>
     </row>
     <row r="34" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C34" s="7" t="s">
@@ -3038,10 +3044,10 @@
       </c>
     </row>
     <row r="35" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C35" s="7" t="s">
@@ -3057,31 +3063,31 @@
         <v>27</v>
       </c>
       <c r="G35" s="9">
-        <v>598</v>
+        <v>1402</v>
       </c>
       <c r="H35" s="9">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I35" s="9">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
       <c r="J35" s="9">
-        <v>1.5</v>
+        <v>0.93</v>
       </c>
       <c r="K35" s="9">
-        <v>11.11</v>
+        <v>7.69</v>
       </c>
       <c r="L35" s="9">
         <v>83.720001220703125</v>
       </c>
       <c r="M35" s="9">
-        <v>12.04</v>
+        <v>19.559999999999999</v>
       </c>
       <c r="N35" s="9">
-        <v>14.38</v>
+        <v>23.36</v>
       </c>
       <c r="O35" s="9">
-        <v>695.35</v>
+        <v>428.02</v>
       </c>
       <c r="P35" s="9">
         <v>0</v>
@@ -3100,10 +3106,10 @@
       </c>
     </row>
     <row r="36" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C36" s="7" t="s">
@@ -3162,10 +3168,10 @@
       </c>
     </row>
     <row r="37" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -3181,31 +3187,31 @@
         <v>27</v>
       </c>
       <c r="G37" s="9">
-        <v>431</v>
+        <v>1305</v>
       </c>
       <c r="H37" s="9">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="I37" s="9">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="J37" s="9">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="K37" s="9">
-        <v>12.5</v>
+        <v>4</v>
       </c>
       <c r="L37" s="9">
         <v>67.230003356933594</v>
       </c>
       <c r="M37" s="9">
-        <v>7.97</v>
+        <v>22.74</v>
       </c>
       <c r="N37" s="9">
-        <v>11.85</v>
+        <v>33.82</v>
       </c>
       <c r="O37" s="9">
-        <v>843.54</v>
+        <v>295.64999999999998</v>
       </c>
       <c r="P37" s="9">
         <v>1</v>
@@ -3224,10 +3230,10 @@
       </c>
     </row>
     <row r="38" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C38" s="7" t="s">
@@ -3243,49 +3249,52 @@
         <v>27</v>
       </c>
       <c r="G38" s="9">
-        <v>242</v>
+        <v>1278</v>
       </c>
       <c r="H38" s="9">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="I38" s="9">
-        <v>0.44</v>
+        <v>0.74</v>
       </c>
       <c r="J38" s="9">
-        <v>3.31</v>
-      </c>
-      <c r="K38" s="9" t="s">
-        <v>31</v>
+        <v>2.5</v>
+      </c>
+      <c r="K38" s="9">
+        <v>3.12</v>
       </c>
       <c r="L38" s="9">
-        <v>0</v>
+        <v>67.230003356933594</v>
       </c>
       <c r="M38" s="9">
-        <v>3.54</v>
-      </c>
-      <c r="N38" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O38" s="9" t="s">
-        <v>31</v>
+        <v>23.83</v>
+      </c>
+      <c r="N38" s="9">
+        <v>35.44</v>
+      </c>
+      <c r="O38" s="9">
+        <v>282.12</v>
       </c>
       <c r="P38" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="9">
         <v>0</v>
       </c>
       <c r="R38" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S38" s="9">
-        <v>0</v>
+        <v>67.230003356933594</v>
       </c>
       <c r="T38" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="15.75" customHeight="1"/>
+    <row r="39" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+    </row>
     <row r="40" spans="1:20" ht="15.75" customHeight="1"/>
     <row r="41" spans="1:20" ht="15.75" customHeight="1"/>
     <row r="42" spans="1:20" ht="15.75" customHeight="1"/>
